--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1346,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1330,14 +1463,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -1346,14 +1479,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1362,13 +1495,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1479,14 +1566,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1495,14 +1704,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1511,13 +1720,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.04</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,171 +457,489 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>539002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信新兴市场优选混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -648,7 +966,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -678,36 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.18</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -716,36 +1034,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.18</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -764,26 +1082,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.03</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +1109,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -961,139 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1120,7 +1438,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1150,36 +1468,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1188,36 +1506,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1236,366 +1554,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.81</t>
+          <t>87.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0852</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009562</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1737</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009563</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1737</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1737</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>539002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信新兴市场优选混合QDII</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1609,144 +1587,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.04</v>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1737</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1737</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -737,31 +754,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1737</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -775,27 +792,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信新兴市场优选混合QDII</t>
+          <t>建信新兴市场优选混合（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>81.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,6 +825,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1109,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1234,176 +1459,6 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>539002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信新兴市场优选混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1533,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1488,12 +1543,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1516,7 +1571,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1526,12 +1581,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1554,26 +1609,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.03</t>
+          <t>80.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1582,6 +1637,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
+++ b/数据整理/stocks/其他/US47215P1066-京东集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.04</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +860,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银全球股票（QDII）美元</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1759</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +898,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银全球股票（QDII）港币</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1759</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +936,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1759</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -797,22 +984,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.57</t>
+          <t>73.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -886,31 +1073,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>工银全球股票（QDII）美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1737</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -924,31 +1111,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>工银全球股票（QDII）港币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1737</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -962,31 +1149,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1737</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1000,27 +1187,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信新兴市场优选混合QDII</t>
+          <t>建信新兴市场优选混合（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>81.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1033,6 +1220,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>539002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新兴市场优选混合QDII</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1164,7 +1559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1334,7 +1729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1459,176 +1854,6 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0500</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>539002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信新兴市场优选混合QDII</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1928,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1713,12 +1938,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.0500</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1741,7 +1966,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1751,12 +1976,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0141</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1779,26 +2004,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.03</t>
+          <t>80.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1814,51 +2039,51 @@
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1873,30 +2098,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.22</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1916,25 +2141,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.22</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0115</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1949,22 +2174,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.85</t>
+          <t>87.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1972,6 +2197,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>